--- a/biology/Botanique/Pistacia/Pistacia.xlsx
+++ b/biology/Botanique/Pistacia/Pistacia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre botanique Pistacia regroupe une quinzaine d'espèces d'arbustes appelés pistachiers appartenant à l'ordre des Sapindales et à la famille des Anacardiaceae. 
 D'origine asiatique ou méditerranéenne (à l'exception de Pistacia mexicana qui est une espèce américaine), les pistachiers sont des arbustes dioïques (fleurs mâles et femelles poussant sur des arbustes différents). Les fleurs, plus ou moins marron, sont groupées en racèmes. Les fruits sont des drupes.
-Le pistachier est un arbre caduc, à croissance lente et longue vie, pouvant atteindre une hauteur de 6 à 10 mètres[1].
+Le pistachier est un arbre caduc, à croissance lente et longue vie, pouvant atteindre une hauteur de 6 à 10 mètres.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pistacia vera L. — pistachier vrai (qui donne la pistache)
 Pistacia lentiscus L. — pistachier lentisque
@@ -521,7 +535,7 @@
 Pistacia palaestina — térébinthe de Palestine
 Pistacia aethiopica Kokwaro
 Pistacia afghanistania
-Pistacia atlantica Desf. – appelé Betoum ou Pistachier de l’Atlas (présent au Maghreb)[2]
+Pistacia atlantica Desf. – appelé Betoum ou Pistachier de l’Atlas (présent au Maghreb)
 Pistacia chinensis Bunge –
 Pistacia cucphuongensis Dai
 Pistacia eurycarpa Yalt.
